--- a/xlsx/.us_intext.xlsx
+++ b/xlsx/.us_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_.us</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_.us</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%8A%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國家及地區頂級域</t>
+    <t>国家及地区顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網路</t>
+    <t>网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Network-stub</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F%E5%90%8D</t>
   </si>
   <si>
-    <t>國家和地區頂級域名</t>
+    <t>国家和地区顶级域名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -1553,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8C%96%E5%9C%8B%E5%AE%B6%E5%8F%8A%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國際化國家及地區頂級域</t>
+    <t>国际化国家及地区顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E5%B0%94%E5%AD%97%E6%AF%8D</t>
@@ -1667,7 +1667,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -1709,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%D8%A7%D9%85%D8%A7%D8%B1%D8%A7%D8%AA.</t>
@@ -1769,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
@@ -1925,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>通用頂級域</t>
+    <t>通用顶级域</t>
   </si>
 </sst>
 </file>
